--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="335">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -94,916 +94,934 @@
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.941+/-0.024</t>
+    <t>0.952+/-0.016</t>
+  </si>
+  <si>
+    <t>0.757+/-0.0</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.929+/-0.024</t>
+  </si>
+  <si>
+    <t>0.684+/-0.009</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.98+/-0.058</t>
+  </si>
+  <si>
+    <t>0.952+/-0.064</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
+  </si>
+  <si>
+    <t>0.63+/-0.002</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.617+/-0.002</t>
+  </si>
+  <si>
+    <t>0.616+/-0.012</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.688+/-0.003</t>
+  </si>
+  <si>
+    <t>0.686+/-0.027</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.625+/-0.117</t>
+  </si>
+  <si>
+    <t>0.565+/-0.002</t>
+  </si>
+  <si>
+    <t>0.565+/-0.0</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.542+/-0.002</t>
+  </si>
+  <si>
+    <t>0.542+/-0.01</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.845+/-0.005</t>
+  </si>
+  <si>
+    <t>0.843+/-0.018</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.6+/-0.002</t>
+  </si>
+  <si>
+    <t>0.6+/-0.0</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.588+/-0.001</t>
+  </si>
+  <si>
+    <t>0.587+/-0.013</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.672+/-0.004</t>
+  </si>
+  <si>
+    <t>0.671+/-0.027</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.783+/-0.006</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.614</t>
+  </si>
+  <si>
+    <t>0.744+/-0.012</t>
+  </si>
+  <si>
+    <t>0.694+/-0.016</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.864+/-0.02</t>
+  </si>
+  <si>
+    <t>0.81+/-0.035</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>10.0+/-3.121</t>
+  </si>
+  <si>
+    <t>0.79+/-0.015</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.773+/-0.032</t>
+  </si>
+  <si>
+    <t>0.71+/-0.028</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.826+/-0.055</t>
+  </si>
+  <si>
+    <t>0.761+/-0.052</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.133+/-0.004</t>
+  </si>
+  <si>
+    <t>0.759+/-0.01</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.787+/-0.027</t>
+  </si>
+  <si>
+    <t>0.736+/-0.022</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.716+/-0.047</t>
+  </si>
+  <si>
+    <t>0.671+/-0.055</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.189+/-0.007</t>
+  </si>
+  <si>
+    <t>0.707+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682+/-0.0</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.683+/-0.002</t>
+  </si>
+  <si>
+    <t>0.66+/-0.014</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.775+/-0.006</t>
+  </si>
+  <si>
+    <t>0.748+/-0.023</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>75.24+/-11.505</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.937+/-0.028</t>
+  </si>
+  <si>
+    <t>0.771+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.943+/-0.037</t>
+  </si>
+  <si>
+    <t>0.708+/-0.014</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.936+/-0.097</t>
+  </si>
+  <si>
+    <t>0.924+/-0.098</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648+/-0.002</t>
+  </si>
+  <si>
+    <t>0.645+/-0.0</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.633+/-0.002</t>
+  </si>
+  <si>
+    <t>0.63+/-0.012</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.702+/-0.002</t>
+  </si>
+  <si>
+    <t>0.699+/-0.021</t>
+  </si>
+  <si>
+    <t>0.918+/-0.073</t>
+  </si>
+  <si>
+    <t>0.566+/-0.001</t>
+  </si>
+  <si>
+    <t>0.566+/-0.0</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.543+/-0.001</t>
+  </si>
+  <si>
+    <t>0.543+/-0.008</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.84+/-0.003</t>
+  </si>
+  <si>
+    <t>0.84+/-0.02</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.606+/-0.001</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.589+/-0.001</t>
+  </si>
+  <si>
+    <t>0.589+/-0.012</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.701+/-0.002</t>
+  </si>
+  <si>
+    <t>0.701+/-0.02</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.805+/-0.008</t>
+  </si>
+  <si>
+    <t>0.753+/-0.0</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.762+/-0.013</t>
+  </si>
+  <si>
+    <t>0.714+/-0.015</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.887+/-0.024</t>
+  </si>
+  <si>
+    <t>0.844+/-0.031</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>10.982+/-1.866</t>
+  </si>
+  <si>
+    <t>0.817+/-0.005</t>
   </si>
   <si>
     <t>0.756+/-0.0</t>
   </si>
   <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.79+/-0.018</t>
+  </si>
+  <si>
+    <t>0.733+/-0.018</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.864+/-0.028</t>
+  </si>
+  <si>
+    <t>0.807+/-0.025</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.146+/-0.005</t>
+  </si>
+  <si>
+    <t>0.795+/-0.008</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.796+/-0.014</t>
+  </si>
+  <si>
+    <t>0.761+/-0.023</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.792+/-0.015</t>
+  </si>
+  <si>
+    <t>0.751+/-0.018</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.231+/-0.01</t>
+  </si>
+  <si>
+    <t>0.723+/-0.001</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>0.695+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682+/-0.01</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.795+/-0.003</t>
+  </si>
+  <si>
+    <t>0.782+/-0.02</t>
+  </si>
+  <si>
+    <t>73.511+/-7.191</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.951+/-0.008</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.958+/-0.051</t>
+  </si>
+  <si>
+    <t>0.643+/-0.017</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.948+/-0.041</t>
+  </si>
+  <si>
+    <t>0.864+/-0.048</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.569+/-0.001</t>
+  </si>
+  <si>
+    <t>0.569+/-0.0</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.581+/-0.002</t>
+  </si>
+  <si>
+    <t>0.581+/-0.014</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.495+/-0.004</t>
+  </si>
+  <si>
+    <t>0.492+/-0.025</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.398+/-0.137</t>
+  </si>
+  <si>
+    <t>0.55+/-0.004</t>
+  </si>
+  <si>
+    <t>0.547+/-0.0</t>
+  </si>
+  <si>
+    <t>0.641</t>
+  </si>
+  <si>
+    <t>0.583+/-0.003</t>
+  </si>
+  <si>
+    <t>0.579+/-0.017</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.349+/-0.019</t>
+  </si>
+  <si>
+    <t>0.346+/-0.028</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.55+/-0.002</t>
+  </si>
+  <si>
+    <t>0.55+/-0.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.557+/-0.002</t>
+  </si>
+  <si>
+    <t>0.556+/-0.015</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.492+/-0.003</t>
+  </si>
+  <si>
+    <t>0.491+/-0.03</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.71+/-0.009</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.729+/-0.019</t>
+  </si>
+  <si>
+    <t>0.641+/-0.016</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.671+/-0.042</t>
+  </si>
+  <si>
+    <t>0.601+/-0.046</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>8.823+/-1.804</t>
+  </si>
+  <si>
+    <t>0.708+/-0.01</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722+/-0.03</t>
+  </si>
+  <si>
+    <t>0.657+/-0.023</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.684+/-0.05</t>
+  </si>
+  <si>
+    <t>0.623+/-0.07</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.134+/-0.006</t>
+  </si>
+  <si>
+    <t>0.697+/-0.01</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.722+/-0.025</t>
+  </si>
+  <si>
+    <t>0.664+/-0.025</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.646+/-0.057</t>
+  </si>
+  <si>
+    <t>0.593+/-0.058</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.195+/-0.006</t>
+  </si>
+  <si>
+    <t>0.649+/-0.001</t>
+  </si>
+  <si>
     <t>0.608</t>
   </si>
   <si>
-    <t>0.945+/-0.036</t>
-  </si>
-  <si>
-    <t>0.694+/-0.012</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.942+/-0.087</t>
-  </si>
-  <si>
-    <t>0.919+/-0.084</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.626+/-0.002</t>
-  </si>
-  <si>
-    <t>0.624+/-0.0</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.612+/-0.002</t>
-  </si>
-  <si>
-    <t>0.611+/-0.006</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.689+/-0.003</t>
-  </si>
-  <si>
-    <t>0.685+/-0.025</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.629+/-0.049</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.374</t>
+    <t>0.657+/-0.004</t>
+  </si>
+  <si>
+    <t>0.61+/-0.011</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.625+/-0.011</t>
+  </si>
+  <si>
+    <t>0.587+/-0.026</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>55.925+/-7.242</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.96+/-0.0</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.652+/-0.009</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.921+/-0.001</t>
+  </si>
+  <si>
+    <t>0.816+/-0.017</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.556+/-0.001</t>
+  </si>
+  <si>
+    <t>0.549+/-0.0</t>
+  </si>
+  <si>
+    <t>0.563+/-0.002</t>
+  </si>
+  <si>
+    <t>0.556+/-0.011</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.499+/-0.006</t>
+  </si>
+  <si>
+    <t>0.492+/-0.014</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.345+/-0.06</t>
+  </si>
+  <si>
+    <t>0.545+/-0.003</t>
+  </si>
+  <si>
+    <t>0.546+/-0.0</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.566+/-0.004</t>
+  </si>
+  <si>
+    <t>0.567+/-0.021</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.389+/-0.031</t>
+  </si>
+  <si>
+    <t>0.389+/-0.037</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
   </si>
   <si>
     <t>0.541+/-0.002</t>
   </si>
   <si>
-    <t>0.541+/-0.008</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>0.85+/-0.006</t>
-  </si>
-  <si>
-    <t>0.85+/-0.013</t>
-  </si>
-  <si>
-    <t>0.821</t>
+    <t>0.54+/-0.0</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.546+/-0.002</t>
+  </si>
+  <si>
+    <t>0.545+/-0.015</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.484+/-0.001</t>
+  </si>
+  <si>
+    <t>0.483+/-0.019</t>
+  </si>
+  <si>
+    <t>0.473</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.599+/-0.001</t>
-  </si>
-  <si>
-    <t>0.599+/-0.0</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.585+/-0.001</t>
-  </si>
-  <si>
-    <t>0.585+/-0.012</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.682+/-0.002</t>
-  </si>
-  <si>
-    <t>0.681+/-0.014</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.778+/-0.007</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.738+/-0.011</t>
-  </si>
-  <si>
-    <t>0.689+/-0.023</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.864+/-0.028</t>
-  </si>
-  <si>
-    <t>0.812+/-0.036</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>11.055+/-2.235</t>
-  </si>
-  <si>
-    <t>0.792+/-0.009</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.77+/-0.023</t>
-  </si>
-  <si>
-    <t>0.716+/-0.015</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.835+/-0.033</t>
-  </si>
-  <si>
-    <t>0.775+/-0.036</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>0.142+/-0.008</t>
-  </si>
-  <si>
-    <t>0.77+/-0.005</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
+    <t>0.689+/-0.021</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.705+/-0.038</t>
+  </si>
+  <si>
+    <t>0.612+/-0.023</t>
+  </si>
+  <si>
+    <t>0.662+/-0.091</t>
+  </si>
+  <si>
+    <t>0.583+/-0.083</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>5.666+/-0.678</t>
+  </si>
+  <si>
+    <t>0.649+/-0.0</t>
+  </si>
+  <si>
+    <t>0.753+/-0.025</t>
+  </si>
+  <si>
+    <t>0.68+/-0.029</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.629+/-0.052</t>
+  </si>
+  <si>
+    <t>0.568+/-0.046</t>
+  </si>
+  <si>
+    <t>0.103+/-0.009</t>
+  </si>
+  <si>
+    <t>0.701+/-0.005</t>
   </si>
   <si>
     <t>0.617</t>
   </si>
   <si>
-    <t>0.746+/-0.02</t>
-  </si>
-  <si>
-    <t>0.704+/-0.013</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.82+/-0.036</t>
-  </si>
-  <si>
-    <t>0.773+/-0.047</t>
-  </si>
-  <si>
-    <t>0.205+/-0.013</t>
-  </si>
-  <si>
-    <t>0.705+/-0.002</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.679+/-0.003</t>
-  </si>
-  <si>
-    <t>0.66+/-0.014</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.777+/-0.005</t>
-  </si>
-  <si>
-    <t>0.752+/-0.018</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>52.799+/-3.262</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.931+/-0.03</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.952+/-0.04</t>
-  </si>
-  <si>
-    <t>0.703+/-0.014</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>0.915+/-0.104</t>
-  </si>
-  <si>
-    <t>0.898+/-0.11</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.647+/-0.002</t>
-  </si>
-  <si>
-    <t>0.645+/-0.0</t>
-  </si>
-  <si>
-    <t>0.632+/-0.002</t>
-  </si>
-  <si>
-    <t>0.63+/-0.013</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.702+/-0.003</t>
-  </si>
-  <si>
-    <t>0.701+/-0.02</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.755+/-0.082</t>
-  </si>
-  <si>
-    <t>0.567+/-0.002</t>
-  </si>
-  <si>
-    <t>0.567+/-0.0</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.543+/-0.001</t>
-  </si>
-  <si>
-    <t>0.543+/-0.007</t>
-  </si>
-  <si>
-    <t>0.168</t>
-  </si>
-  <si>
-    <t>0.847+/-0.002</t>
-  </si>
-  <si>
-    <t>0.847+/-0.009</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.605+/-0.001</t>
-  </si>
-  <si>
-    <t>0.604+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588+/-0.001</t>
-  </si>
-  <si>
-    <t>0.588+/-0.011</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.699+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.014</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.012+/-0.003</t>
-  </si>
-  <si>
-    <t>0.8+/-0.009</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.761+/-0.014</t>
-  </si>
-  <si>
-    <t>0.717+/-0.022</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.877+/-0.025</t>
-  </si>
-  <si>
-    <t>0.847+/-0.023</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>10.712+/-5.646</t>
-  </si>
-  <si>
-    <t>0.82+/-0.007</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.817+/-0.016</t>
-  </si>
-  <si>
-    <t>0.75+/-0.021</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.827+/-0.027</t>
-  </si>
-  <si>
-    <t>0.768+/-0.028</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.132+/-0.002</t>
-  </si>
-  <si>
-    <t>0.805+/-0.006</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.806+/-0.016</t>
-  </si>
-  <si>
-    <t>0.757+/-0.027</t>
-  </si>
-  <si>
-    <t>0.804+/-0.025</t>
-  </si>
-  <si>
-    <t>0.752+/-0.029</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>0.196+/-0.003</t>
-  </si>
-  <si>
-    <t>0.724+/-0.001</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.694+/-0.002</t>
-  </si>
-  <si>
-    <t>0.679+/-0.004</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.8+/-0.007</t>
-  </si>
-  <si>
-    <t>0.783+/-0.018</t>
-  </si>
-  <si>
-    <t>54.474+/-5.263</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.958+/-0.005</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.99+/-0.031</t>
-  </si>
-  <si>
-    <t>0.659+/-0.018</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.927+/-0.024</t>
-  </si>
-  <si>
-    <t>0.854+/-0.024</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.572+/-0.002</t>
-  </si>
-  <si>
-    <t>0.569+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
-  </si>
-  <si>
-    <t>0.578+/-0.015</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.512+/-0.004</t>
-  </si>
-  <si>
-    <t>0.508+/-0.028</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.297+/-0.078</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.573+/-0.002</t>
-  </si>
-  <si>
-    <t>0.57+/-0.017</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.392+/-0.018</t>
-  </si>
-  <si>
-    <t>0.391+/-0.025</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.0</t>
-  </si>
-  <si>
-    <t>0.56+/-0.001</t>
-  </si>
-  <si>
-    <t>0.56+/-0.009</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.508+/-0.002</t>
-  </si>
-  <si>
-    <t>0.508+/-0.02</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.717+/-0.01</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.72+/-0.028</t>
-  </si>
-  <si>
-    <t>0.642+/-0.031</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.72+/-0.064</t>
-  </si>
-  <si>
-    <t>0.656+/-0.059</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>5.481+/-0.875</t>
-  </si>
-  <si>
-    <t>0.735+/-0.005</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.798+/-0.023</t>
-  </si>
-  <si>
-    <t>0.703+/-0.018</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.631+/-0.04</t>
-  </si>
-  <si>
-    <t>0.559+/-0.051</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.097+/-0.008</t>
-  </si>
-  <si>
-    <t>0.722+/-0.004</t>
-  </si>
-  <si>
-    <t>0.665+/-0.0</t>
-  </si>
-  <si>
-    <t>0.653</t>
-  </si>
-  <si>
-    <t>0.787+/-0.023</t>
-  </si>
-  <si>
-    <t>0.714+/-0.018</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.612+/-0.042</t>
-  </si>
-  <si>
-    <t>0.552+/-0.049</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.14+/-0.009</t>
-  </si>
-  <si>
-    <t>0.658+/-0.002</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.665+/-0.003</t>
-  </si>
-  <si>
-    <t>0.618+/-0.016</t>
-  </si>
-  <si>
-    <t>0.637+/-0.009</t>
-  </si>
-  <si>
-    <t>0.599+/-0.028</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>48.561+/-8.407</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.96+/-0.007</t>
-  </si>
-  <si>
-    <t>0.68+/-0.0</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.989+/-0.032</t>
-  </si>
-  <si>
-    <t>0.639+/-0.017</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.932+/-0.022</t>
-  </si>
-  <si>
-    <t>0.831+/-0.027</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.557+/-0.002</t>
-  </si>
-  <si>
-    <t>0.549+/-0.0</t>
-  </si>
-  <si>
-    <t>0.56+/-0.002</t>
-  </si>
-  <si>
-    <t>0.552+/-0.014</t>
-  </si>
-  <si>
-    <t>0.532+/-0.013</t>
-  </si>
-  <si>
-    <t>0.527+/-0.019</t>
+    <t>0.752+/-0.017</t>
+  </si>
+  <si>
+    <t>0.681+/-0.025</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.602+/-0.032</t>
+  </si>
+  <si>
+    <t>0.549+/-0.037</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.141+/-0.018</t>
+  </si>
+  <si>
+    <t>0.634+/-0.002</t>
+  </si>
+  <si>
+    <t>0.592+/-0.0</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.634+/-0.003</t>
+  </si>
+  <si>
+    <t>0.59+/-0.015</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.635+/-0.009</t>
+  </si>
+  <si>
+    <t>0.6+/-0.015</t>
   </si>
   <si>
     <t>0.531</t>
   </si>
   <si>
-    <t>0.376+/-0.042</t>
-  </si>
-  <si>
-    <t>0.548+/-0.003</t>
-  </si>
-  <si>
-    <t>0.546+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.566+/-0.004</t>
-  </si>
-  <si>
-    <t>0.563+/-0.019</t>
-  </si>
-  <si>
-    <t>0.412+/-0.028</t>
-  </si>
-  <si>
-    <t>0.409+/-0.033</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.547+/-0.002</t>
-  </si>
-  <si>
-    <t>0.547+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.551+/-0.002</t>
-  </si>
-  <si>
-    <t>0.551+/-0.014</t>
-  </si>
-  <si>
-    <t>0.507+/-0.003</t>
-  </si>
-  <si>
-    <t>0.508+/-0.025</t>
-  </si>
-  <si>
-    <t>0.013+/-0.005</t>
-  </si>
-  <si>
-    <t>0.696+/-0.016</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.714+/-0.048</t>
-  </si>
-  <si>
-    <t>0.61+/-0.021</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.674+/-0.089</t>
-  </si>
-  <si>
-    <t>0.592+/-0.098</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>5.64+/-1.2</t>
-  </si>
-  <si>
-    <t>0.719+/-0.005</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.782+/-0.03</t>
-  </si>
-  <si>
-    <t>0.684+/-0.025</t>
-  </si>
-  <si>
-    <t>0.611+/-0.033</t>
-  </si>
-  <si>
-    <t>0.534+/-0.04</t>
-  </si>
-  <si>
-    <t>0.11+/-0.011</t>
-  </si>
-  <si>
-    <t>0.704+/-0.004</t>
-  </si>
-  <si>
-    <t>0.651+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.784+/-0.019</t>
-  </si>
-  <si>
-    <t>0.706+/-0.018</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.564+/-0.03</t>
-  </si>
-  <si>
-    <t>0.518+/-0.029</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.146+/-0.012</t>
-  </si>
-  <si>
-    <t>0.643+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.638+/-0.003</t>
-  </si>
-  <si>
-    <t>0.587+/-0.011</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.662+/-0.006</t>
-  </si>
-  <si>
-    <t>0.611+/-0.014</t>
-  </si>
-  <si>
-    <t>52.026+/-6.965</t>
+    <t>40.858+/-4.46</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1443,7 @@
         <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1457,7 +1475,7 @@
         <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1489,7 +1507,7 @@
         <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1521,7 +1539,7 @@
         <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1553,7 +1571,7 @@
         <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1585,7 +1603,7 @@
         <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1617,7 +1635,7 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1649,7 +1667,7 @@
         <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1678,10 +1696,10 @@
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1710,10 +1728,10 @@
         <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1766,28 +1784,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1798,28 +1816,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" t="s">
-        <v>161</v>
-      </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1827,31 +1845,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1862,28 +1880,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1894,28 +1912,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1926,28 +1944,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1958,28 +1976,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1990,28 +2008,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2022,28 +2040,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2054,28 +2072,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2128,28 +2146,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2160,28 +2178,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2189,31 +2207,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2221,31 +2239,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2253,31 +2271,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2288,28 +2306,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2317,31 +2335,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2349,31 +2367,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2384,28 +2402,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2416,28 +2434,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2490,28 +2508,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2522,28 +2540,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2551,31 +2569,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2583,31 +2601,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2615,31 +2633,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2650,28 +2668,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2679,31 +2697,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2711,31 +2729,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2746,28 +2764,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2775,31 +2793,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="426">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,955 +73,1228 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.952+/-0.016</t>
-  </si>
-  <si>
-    <t>0.757+/-0.0</t>
+    <t>0.947+/-0.02</t>
+  </si>
+  <si>
+    <t>0.589+/-0.0</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.937+/-0.031</t>
+  </si>
+  <si>
+    <t>0.266+/-0.022</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.962+/-0.075</t>
+  </si>
+  <si>
+    <t>0.594+/-0.082</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.992+/-0.0</t>
+  </si>
+  <si>
+    <t>0.62+/-0.036</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.628+/-0.004</t>
+  </si>
+  <si>
+    <t>0.581+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612+/-0.003</t>
+  </si>
+  <si>
+    <t>0.277+/-0.012</t>
+  </si>
+  <si>
+    <t>0.695+/-0.01</t>
+  </si>
+  <si>
+    <t>0.673+/-0.035</t>
+  </si>
+  <si>
+    <t>0.68+/-0.004</t>
+  </si>
+  <si>
+    <t>0.663+/-0.02</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.842+/-0.22</t>
+  </si>
+  <si>
+    <t>0.562+/-0.003</t>
+  </si>
+  <si>
+    <t>0.385+/-0.0</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.539+/-0.002</t>
+  </si>
+  <si>
+    <t>0.226+/-0.007</t>
+  </si>
+  <si>
+    <t>0.851+/-0.014</t>
+  </si>
+  <si>
+    <t>0.842+/-0.022</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.637+/-0.005</t>
+  </si>
+  <si>
+    <t>0.628+/-0.021</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.013+/-0.004</t>
+  </si>
+  <si>
+    <t>0.595+/-0.004</t>
+  </si>
+  <si>
+    <t>0.547+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.582+/-0.003</t>
+  </si>
+  <si>
+    <t>0.257+/-0.01</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.672+/-0.009</t>
+  </si>
+  <si>
+    <t>0.661+/-0.035</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.63+/-0.005</t>
+  </si>
+  <si>
+    <t>0.62+/-0.027</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.027+/-0.037</t>
+  </si>
+  <si>
+    <t>0.781+/-0.018</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.75+/-0.014</t>
+  </si>
+  <si>
+    <t>0.273+/-0.018</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.844+/-0.063</t>
+  </si>
+  <si>
+    <t>0.523+/-0.073</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.86+/-0.008</t>
+  </si>
+  <si>
+    <t>0.628+/-0.025</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>30.805+/-4.253</t>
+  </si>
+  <si>
+    <t>0.796+/-0.007</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.773+/-0.02</t>
+  </si>
+  <si>
+    <t>0.283+/-0.017</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.842+/-0.03</t>
+  </si>
+  <si>
+    <t>0.478+/-0.045</t>
+  </si>
+  <si>
+    <t>0.891+/-0.005</t>
+  </si>
+  <si>
+    <t>0.6+/-0.019</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.154+/-0.023</t>
+  </si>
+  <si>
+    <t>0.775+/-0.01</t>
+  </si>
+  <si>
+    <t>0.635+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.752+/-0.019</t>
+  </si>
+  <si>
+    <t>0.272+/-0.021</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>0.821+/-0.023</t>
+  </si>
+  <si>
+    <t>0.479+/-0.036</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.874+/-0.008</t>
+  </si>
+  <si>
+    <t>0.608+/-0.02</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.203+/-0.026</t>
+  </si>
+  <si>
+    <t>0.708+/-0.005</t>
+  </si>
+  <si>
+    <t>0.616+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.681+/-0.006</t>
+  </si>
+  <si>
+    <t>0.293+/-0.016</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.784+/-0.013</t>
+  </si>
+  <si>
+    <t>0.64+/-0.043</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.777+/-0.002</t>
+  </si>
+  <si>
+    <t>0.666+/-0.029</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>63.396+/-3.024</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.001</t>
+  </si>
+  <si>
+    <t>0.956+/-0.0</t>
+  </si>
+  <si>
+    <t>0.596+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.919+/-0.001</t>
+  </si>
+  <si>
+    <t>0.212+/-0.012</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.623+/-0.041</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.991+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647+/-0.03</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.006+/-0.002</t>
+  </si>
+  <si>
+    <t>0.645+/-0.003</t>
+  </si>
+  <si>
+    <t>0.604+/-0.0</t>
+  </si>
+  <si>
+    <t>0.63+/-0.003</t>
+  </si>
+  <si>
+    <t>0.226+/-0.01</t>
+  </si>
+  <si>
+    <t>0.702+/-0.009</t>
+  </si>
+  <si>
+    <t>0.679+/-0.042</t>
+  </si>
+  <si>
+    <t>0.697+/-0.003</t>
+  </si>
+  <si>
+    <t>0.679+/-0.02</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>1.072+/-0.276</t>
+  </si>
+  <si>
+    <t>0.57+/-0.004</t>
+  </si>
+  <si>
+    <t>0.374+/-0.0</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.545+/-0.003</t>
+  </si>
+  <si>
+    <t>0.171+/-0.007</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.842+/-0.008</t>
+  </si>
+  <si>
+    <t>0.822+/-0.023</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.653+/-0.004</t>
+  </si>
+  <si>
+    <t>0.639+/-0.019</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.012+/-0.002</t>
+  </si>
+  <si>
+    <t>0.605+/-0.003</t>
+  </si>
+  <si>
+    <t>0.536+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.588+/-0.002</t>
+  </si>
+  <si>
+    <t>0.199+/-0.011</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.7+/-0.005</t>
+  </si>
+  <si>
+    <t>0.689+/-0.025</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.642+/-0.002</t>
+  </si>
+  <si>
+    <t>0.633+/-0.02</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.016+/-0.003</t>
+  </si>
+  <si>
+    <t>0.81+/-0.005</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.77+/-0.013</t>
+  </si>
+  <si>
+    <t>0.231+/-0.022</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.885+/-0.027</t>
+  </si>
+  <si>
+    <t>0.538+/-0.048</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.883+/-0.005</t>
+  </si>
+  <si>
+    <t>0.648+/-0.022</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>26.47+/-5.899</t>
+  </si>
+  <si>
+    <t>0.804+/-0.01</t>
+  </si>
+  <si>
+    <t>0.663+/-0.0</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.782+/-0.026</t>
+  </si>
+  <si>
+    <t>0.22+/-0.022</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.845+/-0.052</t>
+  </si>
+  <si>
+    <t>0.489+/-0.083</t>
+  </si>
+  <si>
+    <t>0.895+/-0.01</t>
+  </si>
+  <si>
+    <t>0.62+/-0.032</t>
   </si>
   <si>
     <t>0.6</t>
   </si>
   <si>
-    <t>0.929+/-0.024</t>
-  </si>
-  <si>
-    <t>0.684+/-0.009</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.98+/-0.058</t>
-  </si>
-  <si>
-    <t>0.952+/-0.064</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.63+/-0.002</t>
-  </si>
-  <si>
-    <t>0.629+/-0.0</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.617+/-0.002</t>
-  </si>
-  <si>
-    <t>0.616+/-0.012</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.688+/-0.003</t>
-  </si>
-  <si>
-    <t>0.686+/-0.027</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.625+/-0.117</t>
-  </si>
-  <si>
-    <t>0.565+/-0.002</t>
-  </si>
-  <si>
-    <t>0.565+/-0.0</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.542+/-0.002</t>
-  </si>
-  <si>
-    <t>0.542+/-0.01</t>
+    <t>0.206+/-0.023</t>
+  </si>
+  <si>
+    <t>0.8+/-0.013</t>
+  </si>
+  <si>
+    <t>0.721+/-0.0</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.807+/-0.018</t>
+  </si>
+  <si>
+    <t>0.254+/-0.016</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.79+/-0.038</t>
+  </si>
+  <si>
+    <t>0.446+/-0.066</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.894+/-0.011</t>
+  </si>
+  <si>
+    <t>0.643+/-0.022</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.286+/-0.023</t>
+  </si>
+  <si>
+    <t>0.722+/-0.004</t>
+  </si>
+  <si>
+    <t>0.694+/-0.005</t>
+  </si>
+  <si>
+    <t>0.237+/-0.009</t>
+  </si>
+  <si>
+    <t>0.795+/-0.011</t>
+  </si>
+  <si>
+    <t>0.649+/-0.039</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.796+/-0.003</t>
+  </si>
+  <si>
+    <t>0.685+/-0.017</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>68.071+/-1.866</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.959+/-0.001</t>
+  </si>
+  <si>
+    <t>0.551+/-0.0</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.31+/-0.018</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.918+/-0.002</t>
+  </si>
+  <si>
+    <t>0.51+/-0.04</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.548+/-0.026</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.007+/-0.005</t>
+  </si>
+  <si>
+    <t>0.57+/-0.006</t>
+  </si>
+  <si>
+    <t>0.59+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.579+/-0.006</t>
+  </si>
+  <si>
+    <t>0.34+/-0.011</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.511+/-0.016</t>
+  </si>
+  <si>
+    <t>0.509+/-0.032</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.607+/-0.005</t>
+  </si>
+  <si>
+    <t>0.598+/-0.014</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.398+/-0.108</t>
+  </si>
+  <si>
+    <t>0.551+/-0.005</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.577+/-0.008</t>
+  </si>
+  <si>
+    <t>0.343+/-0.02</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.385+/-0.035</t>
+  </si>
+  <si>
+    <t>0.384+/-0.039</t>
   </si>
   <si>
     <t>0.219</t>
   </si>
   <si>
-    <t>0.845+/-0.005</t>
-  </si>
-  <si>
-    <t>0.843+/-0.018</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.6+/-0.0</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.588+/-0.001</t>
-  </si>
-  <si>
-    <t>0.587+/-0.013</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.672+/-0.004</t>
-  </si>
-  <si>
-    <t>0.671+/-0.027</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.783+/-0.006</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.614</t>
-  </si>
-  <si>
-    <t>0.744+/-0.012</t>
-  </si>
-  <si>
-    <t>0.694+/-0.016</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.864+/-0.02</t>
-  </si>
-  <si>
-    <t>0.81+/-0.035</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>10.0+/-3.121</t>
-  </si>
-  <si>
-    <t>0.79+/-0.015</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.773+/-0.032</t>
-  </si>
-  <si>
-    <t>0.71+/-0.028</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.826+/-0.055</t>
-  </si>
-  <si>
-    <t>0.761+/-0.052</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.133+/-0.004</t>
-  </si>
-  <si>
-    <t>0.759+/-0.01</t>
-  </si>
-  <si>
-    <t>0.714+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.787+/-0.027</t>
-  </si>
-  <si>
-    <t>0.736+/-0.022</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.716+/-0.047</t>
-  </si>
-  <si>
-    <t>0.671+/-0.055</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.189+/-0.007</t>
-  </si>
-  <si>
-    <t>0.707+/-0.002</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.683+/-0.002</t>
-  </si>
-  <si>
-    <t>0.66+/-0.014</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.775+/-0.006</t>
-  </si>
-  <si>
-    <t>0.748+/-0.023</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>75.24+/-11.505</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.937+/-0.028</t>
-  </si>
-  <si>
-    <t>0.771+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.943+/-0.037</t>
-  </si>
-  <si>
-    <t>0.708+/-0.014</t>
-  </si>
-  <si>
-    <t>0.208</t>
-  </si>
-  <si>
-    <t>0.936+/-0.097</t>
-  </si>
-  <si>
-    <t>0.924+/-0.098</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648+/-0.002</t>
-  </si>
-  <si>
-    <t>0.645+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.633+/-0.002</t>
-  </si>
-  <si>
-    <t>0.63+/-0.012</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>0.702+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.021</t>
-  </si>
-  <si>
-    <t>0.918+/-0.073</t>
-  </si>
-  <si>
-    <t>0.566+/-0.001</t>
+    <t>0.58+/-0.005</t>
+  </si>
+  <si>
+    <t>0.577+/-0.02</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.011+/-0.004</t>
+  </si>
+  <si>
+    <t>0.55+/-0.003</t>
+  </si>
+  <si>
+    <t>0.576+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.556+/-0.003</t>
+  </si>
+  <si>
+    <t>0.327+/-0.015</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.494+/-0.007</t>
+  </si>
+  <si>
+    <t>0.501+/-0.02</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.571+/-0.004</t>
+  </si>
+  <si>
+    <t>0.573+/-0.025</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.015+/-0.004</t>
+  </si>
+  <si>
+    <t>0.719+/-0.01</t>
+  </si>
+  <si>
+    <t>0.583+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.725+/-0.021</t>
+  </si>
+  <si>
+    <t>0.316+/-0.027</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.707+/-0.035</t>
+  </si>
+  <si>
+    <t>0.431+/-0.046</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.8+/-0.012</t>
+  </si>
+  <si>
+    <t>0.54+/-0.029</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>10.559+/-3.021</t>
+  </si>
+  <si>
+    <t>0.726+/-0.012</t>
+  </si>
+  <si>
+    <t>0.615+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.755+/-0.037</t>
+  </si>
+  <si>
+    <t>0.326+/-0.039</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>0.675+/-0.049</t>
+  </si>
+  <si>
+    <t>0.369+/-0.093</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.819+/-0.013</t>
+  </si>
+  <si>
+    <t>0.543+/-0.026</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.147+/-0.009</t>
+  </si>
+  <si>
+    <t>0.713+/-0.009</t>
+  </si>
+  <si>
+    <t>0.639+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.773+/-0.038</t>
+  </si>
+  <si>
+    <t>0.343+/-0.033</t>
+  </si>
+  <si>
+    <t>0.611+/-0.061</t>
+  </si>
+  <si>
+    <t>0.319+/-0.074</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.809+/-0.01</t>
+  </si>
+  <si>
+    <t>0.554+/-0.024</t>
+  </si>
+  <si>
+    <t>0.526</t>
+  </si>
+  <si>
+    <t>0.203+/-0.005</t>
+  </si>
+  <si>
+    <t>0.654+/-0.003</t>
+  </si>
+  <si>
+    <t>0.588+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.66+/-0.006</t>
+  </si>
+  <si>
+    <t>0.33+/-0.027</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.636+/-0.021</t>
+  </si>
+  <si>
+    <t>0.473+/-0.031</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.713+/-0.004</t>
+  </si>
+  <si>
+    <t>0.581+/-0.031</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>56.89+/-1.726</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.958+/-0.002</t>
+  </si>
+  <si>
+    <t>0.545+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.337+/-0.017</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.917+/-0.004</t>
+  </si>
+  <si>
+    <t>0.494+/-0.031</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.539+/-0.012</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.556+/-0.002</t>
+  </si>
+  <si>
+    <t>0.568+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.563+/-0.003</t>
+  </si>
+  <si>
+    <t>0.353+/-0.012</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.5+/-0.013</t>
+  </si>
+  <si>
+    <t>0.484+/-0.026</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.586+/-0.003</t>
+  </si>
+  <si>
+    <t>0.573+/-0.015</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.374+/-0.105</t>
+  </si>
+  <si>
+    <t>0.541+/-0.006</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.567+/-0.005</t>
+  </si>
+  <si>
+    <t>0.367+/-0.015</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.346+/-0.029</t>
+  </si>
+  <si>
+    <t>0.343+/-0.041</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.566+/-0.003</t>
+  </si>
+  <si>
+    <t>0.562+/-0.01</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.012+/-0.007</t>
+  </si>
+  <si>
+    <t>0.54+/-0.002</t>
   </si>
   <si>
     <t>0.566+/-0.0</t>
   </si>
   <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.543+/-0.001</t>
-  </si>
-  <si>
-    <t>0.543+/-0.008</t>
-  </si>
-  <si>
-    <t>0.167</t>
-  </si>
-  <si>
-    <t>0.84+/-0.003</t>
-  </si>
-  <si>
-    <t>0.84+/-0.02</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.606+/-0.001</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>0.589+/-0.001</t>
-  </si>
-  <si>
-    <t>0.589+/-0.012</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.701+/-0.002</t>
-  </si>
-  <si>
-    <t>0.701+/-0.02</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.805+/-0.008</t>
-  </si>
-  <si>
-    <t>0.753+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.762+/-0.013</t>
-  </si>
-  <si>
-    <t>0.714+/-0.015</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>0.887+/-0.024</t>
-  </si>
-  <si>
-    <t>0.844+/-0.031</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>10.982+/-1.866</t>
-  </si>
-  <si>
-    <t>0.817+/-0.005</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.79+/-0.018</t>
-  </si>
-  <si>
-    <t>0.733+/-0.018</t>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t>0.864+/-0.028</t>
-  </si>
-  <si>
-    <t>0.807+/-0.025</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.146+/-0.005</t>
-  </si>
-  <si>
-    <t>0.795+/-0.008</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.796+/-0.014</t>
-  </si>
-  <si>
-    <t>0.761+/-0.023</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.792+/-0.015</t>
-  </si>
-  <si>
-    <t>0.751+/-0.018</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.231+/-0.01</t>
-  </si>
-  <si>
-    <t>0.723+/-0.001</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.695+/-0.002</t>
-  </si>
-  <si>
-    <t>0.682+/-0.01</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.795+/-0.003</t>
-  </si>
-  <si>
-    <t>0.782+/-0.02</t>
-  </si>
-  <si>
-    <t>73.511+/-7.191</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.951+/-0.008</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.958+/-0.051</t>
-  </si>
-  <si>
-    <t>0.643+/-0.017</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.948+/-0.041</t>
-  </si>
-  <si>
-    <t>0.864+/-0.048</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.569+/-0.001</t>
-  </si>
-  <si>
-    <t>0.569+/-0.0</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
-  </si>
-  <si>
-    <t>0.581+/-0.014</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.495+/-0.004</t>
-  </si>
-  <si>
-    <t>0.492+/-0.025</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.398+/-0.137</t>
-  </si>
-  <si>
-    <t>0.55+/-0.004</t>
-  </si>
-  <si>
-    <t>0.547+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.583+/-0.003</t>
-  </si>
-  <si>
-    <t>0.579+/-0.017</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.349+/-0.019</t>
-  </si>
-  <si>
-    <t>0.346+/-0.028</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.557+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.015</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.492+/-0.003</t>
-  </si>
-  <si>
-    <t>0.491+/-0.03</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.71+/-0.009</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.729+/-0.019</t>
-  </si>
-  <si>
-    <t>0.641+/-0.016</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.671+/-0.042</t>
-  </si>
-  <si>
-    <t>0.601+/-0.046</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>8.823+/-1.804</t>
-  </si>
-  <si>
-    <t>0.708+/-0.01</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722+/-0.03</t>
-  </si>
-  <si>
-    <t>0.657+/-0.023</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.684+/-0.05</t>
-  </si>
-  <si>
-    <t>0.623+/-0.07</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.134+/-0.006</t>
-  </si>
-  <si>
-    <t>0.697+/-0.01</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.722+/-0.025</t>
-  </si>
-  <si>
-    <t>0.664+/-0.025</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.646+/-0.057</t>
-  </si>
-  <si>
-    <t>0.593+/-0.058</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.195+/-0.006</t>
-  </si>
-  <si>
-    <t>0.649+/-0.001</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.657+/-0.004</t>
-  </si>
-  <si>
-    <t>0.61+/-0.011</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.625+/-0.011</t>
-  </si>
-  <si>
-    <t>0.587+/-0.026</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>55.925+/-7.242</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.96+/-0.0</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652+/-0.009</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.921+/-0.001</t>
-  </si>
-  <si>
-    <t>0.816+/-0.017</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.556+/-0.001</t>
-  </si>
-  <si>
-    <t>0.549+/-0.0</t>
-  </si>
-  <si>
-    <t>0.563+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.011</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.499+/-0.006</t>
-  </si>
-  <si>
-    <t>0.492+/-0.014</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.345+/-0.06</t>
-  </si>
-  <si>
-    <t>0.545+/-0.003</t>
-  </si>
-  <si>
-    <t>0.546+/-0.0</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.566+/-0.004</t>
-  </si>
-  <si>
-    <t>0.567+/-0.021</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.389+/-0.031</t>
-  </si>
-  <si>
-    <t>0.389+/-0.037</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.541+/-0.002</t>
-  </si>
-  <si>
-    <t>0.54+/-0.0</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.546+/-0.002</t>
-  </si>
-  <si>
-    <t>0.545+/-0.015</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.484+/-0.001</t>
-  </si>
-  <si>
-    <t>0.483+/-0.019</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.689+/-0.021</t>
-  </si>
-  <si>
-    <t>0.603+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.705+/-0.038</t>
-  </si>
-  <si>
-    <t>0.612+/-0.023</t>
-  </si>
-  <si>
-    <t>0.662+/-0.091</t>
-  </si>
-  <si>
-    <t>0.583+/-0.083</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>5.666+/-0.678</t>
-  </si>
-  <si>
-    <t>0.649+/-0.0</t>
-  </si>
-  <si>
-    <t>0.753+/-0.025</t>
-  </si>
-  <si>
-    <t>0.68+/-0.029</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.629+/-0.052</t>
-  </si>
-  <si>
-    <t>0.568+/-0.046</t>
-  </si>
-  <si>
-    <t>0.103+/-0.009</t>
-  </si>
-  <si>
-    <t>0.701+/-0.005</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.752+/-0.017</t>
-  </si>
-  <si>
-    <t>0.681+/-0.025</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.602+/-0.032</t>
-  </si>
-  <si>
-    <t>0.549+/-0.037</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.141+/-0.018</t>
-  </si>
-  <si>
-    <t>0.634+/-0.002</t>
-  </si>
-  <si>
-    <t>0.592+/-0.0</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.634+/-0.003</t>
-  </si>
-  <si>
-    <t>0.59+/-0.015</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.635+/-0.009</t>
-  </si>
-  <si>
-    <t>0.6+/-0.015</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>40.858+/-4.46</t>
+    <t>0.352+/-0.013</t>
+  </si>
+  <si>
+    <t>0.479+/-0.004</t>
+  </si>
+  <si>
+    <t>0.484+/-0.021</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.558+/-0.003</t>
+  </si>
+  <si>
+    <t>0.559+/-0.016</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.014+/-0.004</t>
+  </si>
+  <si>
+    <t>0.701+/-0.012</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.709+/-0.03</t>
+  </si>
+  <si>
+    <t>0.349+/-0.024</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.689+/-0.068</t>
+  </si>
+  <si>
+    <t>0.444+/-0.069</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>0.779+/-0.011</t>
+  </si>
+  <si>
+    <t>0.539+/-0.017</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>10.528+/-2.447</t>
+  </si>
+  <si>
+    <t>0.716+/-0.005</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.76+/-0.03</t>
+  </si>
+  <si>
+    <t>0.357+/-0.029</t>
+  </si>
+  <si>
+    <t>0.637+/-0.047</t>
+  </si>
+  <si>
+    <t>0.333+/-0.033</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.809+/-0.007</t>
+  </si>
+  <si>
+    <t>0.536+/-0.018</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.13+/-0.009</t>
+  </si>
+  <si>
+    <t>0.7+/-0.01</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.76+/-0.04</t>
+  </si>
+  <si>
+    <t>0.344+/-0.029</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.592+/-0.051</t>
+  </si>
+  <si>
+    <t>0.296+/-0.073</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.788+/-0.012</t>
+  </si>
+  <si>
+    <t>0.535+/-0.026</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.184+/-0.015</t>
+  </si>
+  <si>
+    <t>0.639+/-0.002</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.636+/-0.003</t>
+  </si>
+  <si>
+    <t>0.347+/-0.009</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.65+/-0.013</t>
+  </si>
+  <si>
+    <t>0.5+/-0.022</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.694+/-0.003</t>
+  </si>
+  <si>
+    <t>0.56+/-0.014</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>52.985+/-1.566</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1419,31 +1692,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1451,31 +1724,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1483,31 +1756,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1515,31 +1788,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1547,31 +1820,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1579,31 +1852,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1611,31 +1884,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1643,31 +1916,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1675,31 +1948,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1707,31 +1980,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1781,31 +2150,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1813,31 +2182,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1845,31 +2214,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1877,31 +2246,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1909,31 +2278,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1941,31 +2310,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1973,31 +2342,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2005,31 +2374,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2037,31 +2406,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="J10" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2069,31 +2438,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
         <v>153</v>
       </c>
-      <c r="H11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" t="s">
-        <v>181</v>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2143,31 +2608,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2175,31 +2640,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2207,31 +2672,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="I4" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2239,31 +2704,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2271,31 +2736,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2303,31 +2768,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2335,31 +2800,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2367,31 +2832,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2399,31 +2864,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2431,31 +2896,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>240</v>
       </c>
-      <c r="I11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" t="s">
-        <v>258</v>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" t="s">
+        <v>316</v>
+      </c>
+      <c r="J13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +3026,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2505,31 +3066,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2537,31 +3098,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>391</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2569,31 +3130,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2601,31 +3162,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2633,31 +3194,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>393</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="J6" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2665,31 +3226,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2697,31 +3258,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="H8" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="J8" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2729,31 +3290,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="H9" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2761,31 +3322,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="J10" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2793,31 +3354,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="J11" t="s">
-        <v>334</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" t="s">
+        <v>410</v>
+      </c>
+      <c r="J12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" t="s">
+        <v>411</v>
+      </c>
+      <c r="J13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" t="s">
+        <v>400</v>
+      </c>
+      <c r="I14" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
